--- a/cta策略/result/螺纹/BBI_1d/wfo_组合signal.xlsx
+++ b/cta策略/result/螺纹/BBI_1d/wfo_组合signal.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B967"/>
+  <dimension ref="A1:B1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,327 +399,327 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>41656</v>
+        <v>41568</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>41659</v>
+        <v>41569</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>41660</v>
+        <v>41570</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>41661</v>
+        <v>41571</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>41662</v>
+        <v>41572</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>41663</v>
+        <v>41575</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>41666</v>
+        <v>41576</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>41667</v>
+        <v>41577</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>41668</v>
+        <v>41578</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>41669</v>
+        <v>41579</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>41677</v>
+        <v>41582</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>41680</v>
+        <v>41583</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>41681</v>
+        <v>41584</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>41682</v>
+        <v>41585</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>41683</v>
+        <v>41586</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>41684</v>
+        <v>41589</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>41687</v>
+        <v>41590</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>41688</v>
+        <v>41591</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41689</v>
+        <v>41592</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41690</v>
+        <v>41593</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41691</v>
+        <v>41596</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41694</v>
+        <v>41597</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41695</v>
+        <v>41598</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41696</v>
+        <v>41599</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41697</v>
+        <v>41600</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41698</v>
+        <v>41603</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41701</v>
+        <v>41604</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41702</v>
+        <v>41605</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41703</v>
+        <v>41606</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>41704</v>
+        <v>41607</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>41705</v>
+        <v>41610</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>41708</v>
+        <v>41611</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>41709</v>
+        <v>41612</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>41710</v>
+        <v>41613</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>41711</v>
+        <v>41614</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>41712</v>
+        <v>41617</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>41715</v>
+        <v>41618</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>41716</v>
+        <v>41619</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>41717</v>
+        <v>41620</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>41718</v>
+        <v>41621</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>41719</v>
+        <v>41624</v>
       </c>
       <c r="B42">
         <v>-1</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>41722</v>
+        <v>41625</v>
       </c>
       <c r="B43">
         <v>-1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>41723</v>
+        <v>41626</v>
       </c>
       <c r="B44">
         <v>-1</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>41724</v>
+        <v>41627</v>
       </c>
       <c r="B45">
         <v>-1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>41725</v>
+        <v>41628</v>
       </c>
       <c r="B46">
         <v>-1</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>41726</v>
+        <v>41631</v>
       </c>
       <c r="B47">
         <v>-1</v>
@@ -767,103 +767,103 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>41729</v>
+        <v>41632</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>41730</v>
+        <v>41633</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>41731</v>
+        <v>41634</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>41732</v>
+        <v>41635</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>41733</v>
+        <v>41638</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>41737</v>
+        <v>41639</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>41738</v>
+        <v>41641</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>41739</v>
+        <v>41642</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>41740</v>
+        <v>41645</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>41743</v>
+        <v>41646</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>41744</v>
+        <v>41647</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>41745</v>
+        <v>41648</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>41746</v>
+        <v>41649</v>
       </c>
       <c r="B60">
         <v>-1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>41747</v>
+        <v>41652</v>
       </c>
       <c r="B61">
         <v>-1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>41750</v>
+        <v>41653</v>
       </c>
       <c r="B62">
         <v>-1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>41751</v>
+        <v>41654</v>
       </c>
       <c r="B63">
         <v>-1</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>41752</v>
+        <v>41655</v>
       </c>
       <c r="B64">
         <v>-1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>41753</v>
+        <v>41656</v>
       </c>
       <c r="B65">
         <v>-1</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>41754</v>
+        <v>41659</v>
       </c>
       <c r="B66">
         <v>-1</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>41757</v>
+        <v>41660</v>
       </c>
       <c r="B67">
         <v>-1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>41758</v>
+        <v>41661</v>
       </c>
       <c r="B68">
         <v>-1</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>41759</v>
+        <v>41662</v>
       </c>
       <c r="B69">
         <v>-1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>41764</v>
+        <v>41663</v>
       </c>
       <c r="B70">
         <v>-1</v>
@@ -951,15 +951,15 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>41765</v>
+        <v>41666</v>
       </c>
       <c r="B71">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>41766</v>
+        <v>41667</v>
       </c>
       <c r="B72">
         <v>-1</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>41767</v>
+        <v>41668</v>
       </c>
       <c r="B73">
         <v>-1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>41768</v>
+        <v>41669</v>
       </c>
       <c r="B74">
         <v>-1</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>41771</v>
+        <v>41677</v>
       </c>
       <c r="B75">
         <v>-1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>41772</v>
+        <v>41680</v>
       </c>
       <c r="B76">
         <v>-1</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>41773</v>
+        <v>41681</v>
       </c>
       <c r="B77">
         <v>-1</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>41774</v>
+        <v>41682</v>
       </c>
       <c r="B78">
         <v>-1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>41775</v>
+        <v>41683</v>
       </c>
       <c r="B79">
         <v>-1</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>41778</v>
+        <v>41684</v>
       </c>
       <c r="B80">
         <v>-1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>41779</v>
+        <v>41687</v>
       </c>
       <c r="B81">
         <v>-1</v>
@@ -1039,15 +1039,15 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>41780</v>
+        <v>41688</v>
       </c>
       <c r="B82">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>41781</v>
+        <v>41689</v>
       </c>
       <c r="B83">
         <v>-1</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>41782</v>
+        <v>41690</v>
       </c>
       <c r="B84">
         <v>-1</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>41785</v>
+        <v>41691</v>
       </c>
       <c r="B85">
         <v>-1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>41786</v>
+        <v>41694</v>
       </c>
       <c r="B86">
         <v>-1</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>41787</v>
+        <v>41695</v>
       </c>
       <c r="B87">
         <v>-1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>41788</v>
+        <v>41696</v>
       </c>
       <c r="B88">
         <v>-1</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>41789</v>
+        <v>41697</v>
       </c>
       <c r="B89">
         <v>-1</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>41793</v>
+        <v>41698</v>
       </c>
       <c r="B90">
         <v>-1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>41794</v>
+        <v>41701</v>
       </c>
       <c r="B91">
         <v>-1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>41795</v>
+        <v>41702</v>
       </c>
       <c r="B92">
         <v>-1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>41796</v>
+        <v>41703</v>
       </c>
       <c r="B93">
         <v>-1</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>41799</v>
+        <v>41704</v>
       </c>
       <c r="B94">
         <v>-1</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>41800</v>
+        <v>41705</v>
       </c>
       <c r="B95">
         <v>-1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>41801</v>
+        <v>41708</v>
       </c>
       <c r="B96">
         <v>-1</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>41802</v>
+        <v>41709</v>
       </c>
       <c r="B97">
         <v>-1</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>41803</v>
+        <v>41710</v>
       </c>
       <c r="B98">
         <v>-1</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>41806</v>
+        <v>41711</v>
       </c>
       <c r="B99">
         <v>-1</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>41807</v>
+        <v>41712</v>
       </c>
       <c r="B100">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>41808</v>
+        <v>41715</v>
       </c>
       <c r="B101">
         <v>-1</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>41809</v>
+        <v>41716</v>
       </c>
       <c r="B102">
         <v>-1</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>41810</v>
+        <v>41717</v>
       </c>
       <c r="B103">
         <v>-1</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>41813</v>
+        <v>41718</v>
       </c>
       <c r="B104">
         <v>-1</v>
@@ -1223,31 +1223,31 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>41814</v>
+        <v>41719</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>41815</v>
+        <v>41722</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>41816</v>
+        <v>41723</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>41817</v>
+        <v>41724</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1255,31 +1255,31 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>41820</v>
+        <v>41725</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>41821</v>
+        <v>41726</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>41822</v>
+        <v>41729</v>
       </c>
       <c r="B111">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>41823</v>
+        <v>41730</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>41824</v>
+        <v>41731</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>41827</v>
+        <v>41732</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1303,15 +1303,15 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>41828</v>
+        <v>41733</v>
       </c>
       <c r="B115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>41829</v>
+        <v>41737</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1319,15 +1319,15 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>41830</v>
+        <v>41738</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>41831</v>
+        <v>41739</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>41834</v>
+        <v>41740</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>41835</v>
+        <v>41743</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>41836</v>
+        <v>41744</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>41837</v>
+        <v>41745</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,15 +1367,15 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>41838</v>
+        <v>41746</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>41841</v>
+        <v>41747</v>
       </c>
       <c r="B124">
         <v>-1</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>41842</v>
+        <v>41750</v>
       </c>
       <c r="B125">
         <v>-1</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>41843</v>
+        <v>41751</v>
       </c>
       <c r="B126">
         <v>-1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>41844</v>
+        <v>41752</v>
       </c>
       <c r="B127">
         <v>-1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>41845</v>
+        <v>41753</v>
       </c>
       <c r="B128">
         <v>-1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>41848</v>
+        <v>41754</v>
       </c>
       <c r="B129">
         <v>-1</v>
@@ -1423,23 +1423,23 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>41849</v>
+        <v>41757</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>41850</v>
+        <v>41758</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>41851</v>
+        <v>41759</v>
       </c>
       <c r="B132">
         <v>-1</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>41852</v>
+        <v>41764</v>
       </c>
       <c r="B133">
         <v>-1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>41855</v>
+        <v>41765</v>
       </c>
       <c r="B134">
         <v>-1</v>
@@ -1463,47 +1463,47 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>41856</v>
+        <v>41766</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>41857</v>
+        <v>41767</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>41858</v>
+        <v>41768</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>41859</v>
+        <v>41771</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>41862</v>
+        <v>41772</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>41863</v>
+        <v>41773</v>
       </c>
       <c r="B140">
         <v>-1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>41864</v>
+        <v>41774</v>
       </c>
       <c r="B141">
         <v>-1</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>41865</v>
+        <v>41775</v>
       </c>
       <c r="B142">
         <v>-1</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>41866</v>
+        <v>41778</v>
       </c>
       <c r="B143">
         <v>-1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>41869</v>
+        <v>41779</v>
       </c>
       <c r="B144">
         <v>-1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>41870</v>
+        <v>41780</v>
       </c>
       <c r="B145">
         <v>-1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>41871</v>
+        <v>41781</v>
       </c>
       <c r="B146">
         <v>-1</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>41872</v>
+        <v>41782</v>
       </c>
       <c r="B147">
         <v>-1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>41873</v>
+        <v>41785</v>
       </c>
       <c r="B148">
         <v>-1</v>
@@ -1575,23 +1575,23 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>41876</v>
+        <v>41786</v>
       </c>
       <c r="B149">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>41877</v>
+        <v>41787</v>
       </c>
       <c r="B150">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>41878</v>
+        <v>41788</v>
       </c>
       <c r="B151">
         <v>-1</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>41879</v>
+        <v>41789</v>
       </c>
       <c r="B152">
         <v>-1</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>41880</v>
+        <v>41793</v>
       </c>
       <c r="B153">
         <v>-1</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>41883</v>
+        <v>41794</v>
       </c>
       <c r="B154">
         <v>-1</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>41884</v>
+        <v>41795</v>
       </c>
       <c r="B155">
         <v>-1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>41885</v>
+        <v>41796</v>
       </c>
       <c r="B156">
         <v>-1</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>41886</v>
+        <v>41799</v>
       </c>
       <c r="B157">
         <v>-1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>41887</v>
+        <v>41800</v>
       </c>
       <c r="B158">
         <v>-1</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>41891</v>
+        <v>41801</v>
       </c>
       <c r="B159">
         <v>-1</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>41892</v>
+        <v>41802</v>
       </c>
       <c r="B160">
         <v>-1</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>41893</v>
+        <v>41803</v>
       </c>
       <c r="B161">
         <v>-1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>41894</v>
+        <v>41806</v>
       </c>
       <c r="B162">
         <v>-1</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>41897</v>
+        <v>41807</v>
       </c>
       <c r="B163">
         <v>-1</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>41898</v>
+        <v>41808</v>
       </c>
       <c r="B164">
         <v>-1</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>41899</v>
+        <v>41809</v>
       </c>
       <c r="B165">
         <v>-1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>41900</v>
+        <v>41810</v>
       </c>
       <c r="B166">
         <v>-1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>41901</v>
+        <v>41813</v>
       </c>
       <c r="B167">
         <v>-1</v>
@@ -1727,55 +1727,55 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>41904</v>
+        <v>41814</v>
       </c>
       <c r="B168">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>41905</v>
+        <v>41815</v>
       </c>
       <c r="B169">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>41906</v>
+        <v>41816</v>
       </c>
       <c r="B170">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>41907</v>
+        <v>41817</v>
       </c>
       <c r="B171">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>41908</v>
+        <v>41820</v>
       </c>
       <c r="B172">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>41911</v>
+        <v>41821</v>
       </c>
       <c r="B173">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>41912</v>
+        <v>41822</v>
       </c>
       <c r="B174">
         <v>-1</v>
@@ -1783,31 +1783,31 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>41920</v>
+        <v>41823</v>
       </c>
       <c r="B175">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>41921</v>
+        <v>41824</v>
       </c>
       <c r="B176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>41922</v>
+        <v>41827</v>
       </c>
       <c r="B177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>41925</v>
+        <v>41828</v>
       </c>
       <c r="B178">
         <v>-1</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>41926</v>
+        <v>41829</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>41927</v>
+        <v>41830</v>
       </c>
       <c r="B180">
         <v>-1</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>41928</v>
+        <v>41831</v>
       </c>
       <c r="B181">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>41929</v>
+        <v>41834</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>41932</v>
+        <v>41835</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>41933</v>
+        <v>41836</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -1863,23 +1863,23 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>41934</v>
+        <v>41837</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>41935</v>
+        <v>41838</v>
       </c>
       <c r="B186">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>41936</v>
+        <v>41841</v>
       </c>
       <c r="B187">
         <v>-1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>41939</v>
+        <v>41842</v>
       </c>
       <c r="B188">
         <v>-1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>41940</v>
+        <v>41843</v>
       </c>
       <c r="B189">
         <v>-1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>41941</v>
+        <v>41844</v>
       </c>
       <c r="B190">
         <v>-1</v>
@@ -1911,39 +1911,39 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>41942</v>
+        <v>41845</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>41943</v>
+        <v>41848</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>41946</v>
+        <v>41849</v>
       </c>
       <c r="B193">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>41947</v>
+        <v>41850</v>
       </c>
       <c r="B194">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>41948</v>
+        <v>41851</v>
       </c>
       <c r="B195">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>41949</v>
+        <v>41852</v>
       </c>
       <c r="B196">
         <v>-1</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>41950</v>
+        <v>41855</v>
       </c>
       <c r="B197">
         <v>-1</v>
@@ -1967,39 +1967,39 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>41953</v>
+        <v>41856</v>
       </c>
       <c r="B198">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>41954</v>
+        <v>41857</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>41955</v>
+        <v>41858</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>41956</v>
+        <v>41859</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>41957</v>
+        <v>41862</v>
       </c>
       <c r="B202">
         <v>-1</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>41960</v>
+        <v>41863</v>
       </c>
       <c r="B203">
         <v>-1</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>41961</v>
+        <v>41864</v>
       </c>
       <c r="B204">
         <v>-1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>41962</v>
+        <v>41865</v>
       </c>
       <c r="B205">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>41963</v>
+        <v>41866</v>
       </c>
       <c r="B206">
         <v>-1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>41964</v>
+        <v>41869</v>
       </c>
       <c r="B207">
         <v>-1</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>41967</v>
+        <v>41870</v>
       </c>
       <c r="B208">
         <v>-1</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>41968</v>
+        <v>41871</v>
       </c>
       <c r="B209">
         <v>-1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>41969</v>
+        <v>41872</v>
       </c>
       <c r="B210">
         <v>-1</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>41970</v>
+        <v>41873</v>
       </c>
       <c r="B211">
         <v>-1</v>
@@ -2079,31 +2079,31 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>41971</v>
+        <v>41876</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>41974</v>
+        <v>41877</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>41975</v>
+        <v>41878</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>41976</v>
+        <v>41879</v>
       </c>
       <c r="B215">
         <v>-1</v>
@@ -2111,87 +2111,87 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>41977</v>
+        <v>41880</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>41978</v>
+        <v>41883</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>41981</v>
+        <v>41884</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>41982</v>
+        <v>41885</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>41983</v>
+        <v>41886</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>41984</v>
+        <v>41887</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>41985</v>
+        <v>41891</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>41988</v>
+        <v>41892</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>41989</v>
+        <v>41893</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>41990</v>
+        <v>41894</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>41991</v>
+        <v>41897</v>
       </c>
       <c r="B226">
         <v>-1</v>
@@ -2199,23 +2199,23 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>41992</v>
+        <v>41898</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>41995</v>
+        <v>41899</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>41996</v>
+        <v>41900</v>
       </c>
       <c r="B229">
         <v>-1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>41997</v>
+        <v>41901</v>
       </c>
       <c r="B230">
         <v>-1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>41998</v>
+        <v>41904</v>
       </c>
       <c r="B231">
         <v>-1</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>41999</v>
+        <v>41905</v>
       </c>
       <c r="B232">
         <v>-1</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>42002</v>
+        <v>41906</v>
       </c>
       <c r="B233">
         <v>-1</v>
@@ -2255,103 +2255,103 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>42003</v>
+        <v>41907</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>42004</v>
+        <v>41908</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>42009</v>
+        <v>41911</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>42010</v>
+        <v>41912</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>42011</v>
+        <v>41920</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>42012</v>
+        <v>41921</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>42013</v>
+        <v>41922</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>42016</v>
+        <v>41925</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>42017</v>
+        <v>41926</v>
       </c>
       <c r="B242">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>42018</v>
+        <v>41927</v>
       </c>
       <c r="B243">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>42019</v>
+        <v>41928</v>
       </c>
       <c r="B244">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>42020</v>
+        <v>41929</v>
       </c>
       <c r="B245">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>42023</v>
+        <v>41932</v>
       </c>
       <c r="B246">
         <v>-1</v>
@@ -2359,15 +2359,15 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>42024</v>
+        <v>41933</v>
       </c>
       <c r="B247">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>42025</v>
+        <v>41934</v>
       </c>
       <c r="B248">
         <v>-1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>42026</v>
+        <v>41935</v>
       </c>
       <c r="B249">
         <v>-1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>42027</v>
+        <v>41936</v>
       </c>
       <c r="B250">
         <v>-1</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>42030</v>
+        <v>41939</v>
       </c>
       <c r="B251">
         <v>-1</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>42031</v>
+        <v>41940</v>
       </c>
       <c r="B252">
         <v>-1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>42032</v>
+        <v>41941</v>
       </c>
       <c r="B253">
         <v>-1</v>
@@ -2415,15 +2415,15 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>42033</v>
+        <v>41942</v>
       </c>
       <c r="B254">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>42034</v>
+        <v>41943</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -2431,23 +2431,23 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>42037</v>
+        <v>41946</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>42038</v>
+        <v>41947</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>42039</v>
+        <v>41948</v>
       </c>
       <c r="B258">
         <v>-1</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>42040</v>
+        <v>41949</v>
       </c>
       <c r="B259">
         <v>-1</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>42041</v>
+        <v>41950</v>
       </c>
       <c r="B260">
         <v>-1</v>
@@ -2471,71 +2471,71 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>42044</v>
+        <v>41953</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>42045</v>
+        <v>41954</v>
       </c>
       <c r="B262">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>42046</v>
+        <v>41955</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>42047</v>
+        <v>41956</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>42048</v>
+        <v>41957</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>42051</v>
+        <v>41960</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>42052</v>
+        <v>41961</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>42060</v>
+        <v>41962</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>42061</v>
+        <v>41963</v>
       </c>
       <c r="B269">
         <v>-1</v>
@@ -2543,15 +2543,15 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>42062</v>
+        <v>41964</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>42065</v>
+        <v>41967</v>
       </c>
       <c r="B271">
         <v>-1</v>
@@ -2559,1447 +2559,1447 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>42066</v>
+        <v>41968</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>42067</v>
+        <v>41969</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>42068</v>
+        <v>41970</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>42069</v>
+        <v>41971</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>42072</v>
+        <v>41974</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>42073</v>
+        <v>41975</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>42074</v>
+        <v>41976</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>42075</v>
+        <v>41977</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>42076</v>
+        <v>41978</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>42079</v>
+        <v>41981</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>42080</v>
+        <v>41982</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>42081</v>
+        <v>41983</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>42082</v>
+        <v>41984</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>42083</v>
+        <v>41985</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>42086</v>
+        <v>41988</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>42087</v>
+        <v>41989</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>42088</v>
+        <v>41990</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>42089</v>
+        <v>41991</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>42090</v>
+        <v>41992</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>42093</v>
+        <v>41995</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>42094</v>
+        <v>41996</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>42095</v>
+        <v>41997</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>42096</v>
+        <v>41998</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>42097</v>
+        <v>41999</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>42101</v>
+        <v>42002</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>42102</v>
+        <v>42003</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>42103</v>
+        <v>42004</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>42104</v>
+        <v>42009</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>42107</v>
+        <v>42010</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>42108</v>
+        <v>42011</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>42109</v>
+        <v>42012</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>42110</v>
+        <v>42013</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>42111</v>
+        <v>42016</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>42114</v>
+        <v>42017</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>42115</v>
+        <v>42018</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>42116</v>
+        <v>42019</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>42117</v>
+        <v>42020</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>42118</v>
+        <v>42023</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>42121</v>
+        <v>42024</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>42122</v>
+        <v>42025</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>42123</v>
+        <v>42026</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>42124</v>
+        <v>42027</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>42128</v>
+        <v>42030</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>42129</v>
+        <v>42031</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>42130</v>
+        <v>42032</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>42131</v>
+        <v>42033</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>42132</v>
+        <v>42034</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>42135</v>
+        <v>42037</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>42136</v>
+        <v>42038</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>42137</v>
+        <v>42039</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>42138</v>
+        <v>42040</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>42139</v>
+        <v>42041</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>42142</v>
+        <v>42044</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>42143</v>
+        <v>42045</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>42144</v>
+        <v>42046</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>42145</v>
+        <v>42047</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>42146</v>
+        <v>42048</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>42149</v>
+        <v>42051</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>42150</v>
+        <v>42052</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>42151</v>
+        <v>42060</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>42152</v>
+        <v>42061</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>42153</v>
+        <v>42062</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>42156</v>
+        <v>42065</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>42157</v>
+        <v>42066</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>42158</v>
+        <v>42067</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>42159</v>
+        <v>42068</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>42160</v>
+        <v>42069</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>42163</v>
+        <v>42072</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>42164</v>
+        <v>42073</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>42165</v>
+        <v>42074</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>42166</v>
+        <v>42075</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>42167</v>
+        <v>42076</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>42170</v>
+        <v>42079</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>42171</v>
+        <v>42080</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>42172</v>
+        <v>42081</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>42173</v>
+        <v>42082</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>42174</v>
+        <v>42083</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>42178</v>
+        <v>42086</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>42179</v>
+        <v>42087</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>42180</v>
+        <v>42088</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>42181</v>
+        <v>42089</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>42184</v>
+        <v>42090</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>42185</v>
+        <v>42093</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>42186</v>
+        <v>42094</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>42187</v>
+        <v>42095</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>42188</v>
+        <v>42096</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>42191</v>
+        <v>42097</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>42192</v>
+        <v>42101</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>42193</v>
+        <v>42102</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>42194</v>
+        <v>42103</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>42195</v>
+        <v>42104</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>42198</v>
+        <v>42107</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>42199</v>
+        <v>42108</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>42200</v>
+        <v>42109</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>42201</v>
+        <v>42110</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>42202</v>
+        <v>42111</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>42205</v>
+        <v>42114</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>42206</v>
+        <v>42115</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>42207</v>
+        <v>42116</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>42208</v>
+        <v>42117</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>42209</v>
+        <v>42118</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>42212</v>
+        <v>42121</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>42213</v>
+        <v>42122</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>42214</v>
+        <v>42123</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>42215</v>
+        <v>42124</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>42216</v>
+        <v>42128</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>42219</v>
+        <v>42129</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>42220</v>
+        <v>42130</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>42221</v>
+        <v>42131</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>42222</v>
+        <v>42132</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>42223</v>
+        <v>42135</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>42226</v>
+        <v>42136</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>42227</v>
+        <v>42137</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>42228</v>
+        <v>42138</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>42229</v>
+        <v>42139</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>42230</v>
+        <v>42142</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>42233</v>
+        <v>42143</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>42234</v>
+        <v>42144</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>42235</v>
+        <v>42145</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>42236</v>
+        <v>42146</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>42237</v>
+        <v>42149</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>42240</v>
+        <v>42150</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>42241</v>
+        <v>42151</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>42242</v>
+        <v>42152</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>42243</v>
+        <v>42153</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>42244</v>
+        <v>42156</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>42247</v>
+        <v>42157</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>42248</v>
+        <v>42158</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>42249</v>
+        <v>42159</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>42254</v>
+        <v>42160</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>42255</v>
+        <v>42163</v>
       </c>
       <c r="B402">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>42256</v>
+        <v>42164</v>
       </c>
       <c r="B403">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>42257</v>
+        <v>42165</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>42258</v>
+        <v>42166</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>42261</v>
+        <v>42167</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>42262</v>
+        <v>42170</v>
       </c>
       <c r="B407">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>42263</v>
+        <v>42171</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>42264</v>
+        <v>42172</v>
       </c>
       <c r="B409">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>42265</v>
+        <v>42173</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>42268</v>
+        <v>42174</v>
       </c>
       <c r="B411">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>42269</v>
+        <v>42178</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>42270</v>
+        <v>42179</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>42271</v>
+        <v>42180</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>42272</v>
+        <v>42181</v>
       </c>
       <c r="B415">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>42275</v>
+        <v>42184</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>42276</v>
+        <v>42185</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>42277</v>
+        <v>42186</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>42285</v>
+        <v>42187</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>42286</v>
+        <v>42188</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>42289</v>
+        <v>42191</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>42290</v>
+        <v>42192</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>42291</v>
+        <v>42193</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>42292</v>
+        <v>42194</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>42293</v>
+        <v>42195</v>
       </c>
       <c r="B425">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>42296</v>
+        <v>42198</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>42297</v>
+        <v>42199</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>42298</v>
+        <v>42200</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>42299</v>
+        <v>42201</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>42300</v>
+        <v>42202</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>42303</v>
+        <v>42205</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>42304</v>
+        <v>42206</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>42305</v>
+        <v>42207</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>42306</v>
+        <v>42208</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>42307</v>
+        <v>42209</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>42310</v>
+        <v>42212</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>42311</v>
+        <v>42213</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>42312</v>
+        <v>42214</v>
       </c>
       <c r="B438">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>42313</v>
+        <v>42215</v>
       </c>
       <c r="B439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>42314</v>
+        <v>42216</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>42317</v>
+        <v>42219</v>
       </c>
       <c r="B441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>42318</v>
+        <v>42220</v>
       </c>
       <c r="B442">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>42319</v>
+        <v>42221</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>42320</v>
+        <v>42222</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>42321</v>
+        <v>42223</v>
       </c>
       <c r="B445">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>42324</v>
+        <v>42226</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>42325</v>
+        <v>42227</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>42326</v>
+        <v>42228</v>
       </c>
       <c r="B448">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>42327</v>
+        <v>42229</v>
       </c>
       <c r="B449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>42328</v>
+        <v>42230</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>42331</v>
+        <v>42233</v>
       </c>
       <c r="B451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>42332</v>
+        <v>42234</v>
       </c>
       <c r="B452">
         <v>-1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>42333</v>
+        <v>42235</v>
       </c>
       <c r="B453">
         <v>-1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>42334</v>
+        <v>42236</v>
       </c>
       <c r="B454">
         <v>-1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>42335</v>
+        <v>42237</v>
       </c>
       <c r="B455">
         <v>-1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>42338</v>
+        <v>42240</v>
       </c>
       <c r="B456">
         <v>-1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>42339</v>
+        <v>42241</v>
       </c>
       <c r="B457">
         <v>-1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>42340</v>
+        <v>42242</v>
       </c>
       <c r="B458">
         <v>-1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>42341</v>
+        <v>42243</v>
       </c>
       <c r="B459">
         <v>-1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>42342</v>
+        <v>42244</v>
       </c>
       <c r="B460">
         <v>-1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>42345</v>
+        <v>42247</v>
       </c>
       <c r="B461">
         <v>-1</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>42346</v>
+        <v>42248</v>
       </c>
       <c r="B462">
         <v>-1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>42347</v>
+        <v>42249</v>
       </c>
       <c r="B463">
         <v>-1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>42348</v>
+        <v>42254</v>
       </c>
       <c r="B464">
         <v>-1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>42349</v>
+        <v>42255</v>
       </c>
       <c r="B465">
         <v>-1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>42352</v>
+        <v>42256</v>
       </c>
       <c r="B466">
         <v>-1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>42353</v>
+        <v>42257</v>
       </c>
       <c r="B467">
         <v>-1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>42354</v>
+        <v>42258</v>
       </c>
       <c r="B468">
         <v>-1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>42355</v>
+        <v>42261</v>
       </c>
       <c r="B469">
         <v>-1</v>
@@ -4143,143 +4143,143 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>42356</v>
+        <v>42262</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>42359</v>
+        <v>42263</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>42360</v>
+        <v>42264</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>42361</v>
+        <v>42265</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>42362</v>
+        <v>42268</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>42363</v>
+        <v>42269</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>42366</v>
+        <v>42270</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>42367</v>
+        <v>42271</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>42368</v>
+        <v>42272</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>42369</v>
+        <v>42275</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>42373</v>
+        <v>42276</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>42374</v>
+        <v>42277</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>42375</v>
+        <v>42285</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>42376</v>
+        <v>42286</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>42377</v>
+        <v>42289</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>42380</v>
+        <v>42290</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>42381</v>
+        <v>42291</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>42382</v>
+        <v>42292</v>
       </c>
       <c r="B487">
         <v>-1</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>42383</v>
+        <v>42293</v>
       </c>
       <c r="B488">
         <v>-1</v>
@@ -4295,135 +4295,135 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>42384</v>
+        <v>42296</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>42387</v>
+        <v>42297</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>42388</v>
+        <v>42298</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>42389</v>
+        <v>42299</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>42390</v>
+        <v>42300</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>42391</v>
+        <v>42303</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>42394</v>
+        <v>42304</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>42395</v>
+        <v>42305</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>42396</v>
+        <v>42306</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>42397</v>
+        <v>42307</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>42398</v>
+        <v>42310</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>42401</v>
+        <v>42311</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>42402</v>
+        <v>42312</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>42403</v>
+        <v>42313</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>42404</v>
+        <v>42314</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>42405</v>
+        <v>42317</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>42415</v>
+        <v>42318</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,215 +4431,215 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>42416</v>
+        <v>42319</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>42417</v>
+        <v>42320</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>42418</v>
+        <v>42321</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>42419</v>
+        <v>42324</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>42422</v>
+        <v>42325</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>42423</v>
+        <v>42326</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>42424</v>
+        <v>42327</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>42425</v>
+        <v>42328</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>42426</v>
+        <v>42331</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>42429</v>
+        <v>42332</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>42430</v>
+        <v>42333</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>42431</v>
+        <v>42334</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>42432</v>
+        <v>42335</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>42433</v>
+        <v>42338</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>42436</v>
+        <v>42339</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>42437</v>
+        <v>42340</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>42438</v>
+        <v>42341</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>42439</v>
+        <v>42342</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>42440</v>
+        <v>42345</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>42443</v>
+        <v>42346</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>42444</v>
+        <v>42347</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>42445</v>
+        <v>42348</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>42446</v>
+        <v>42349</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>42447</v>
+        <v>42352</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>42450</v>
+        <v>42353</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>42451</v>
+        <v>42354</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>42452</v>
+        <v>42355</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>42453</v>
+        <v>42356</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>42454</v>
+        <v>42359</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>42457</v>
+        <v>42360</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>42458</v>
+        <v>42361</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>42459</v>
+        <v>42362</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>42460</v>
+        <v>42363</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>42461</v>
+        <v>42366</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>42465</v>
+        <v>42367</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>42466</v>
+        <v>42368</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>42467</v>
+        <v>42369</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>42468</v>
+        <v>42373</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>42471</v>
+        <v>42374</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>42472</v>
+        <v>42375</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>42473</v>
+        <v>42376</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>42474</v>
+        <v>42377</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>42475</v>
+        <v>42380</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>42478</v>
+        <v>42381</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -4783,23 +4783,23 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>42479</v>
+        <v>42382</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>42480</v>
+        <v>42383</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>42481</v>
+        <v>42384</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>42482</v>
+        <v>42387</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>42485</v>
+        <v>42388</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>42486</v>
+        <v>42389</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>42487</v>
+        <v>42390</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>42488</v>
+        <v>42391</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>42489</v>
+        <v>42394</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>42493</v>
+        <v>42395</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,207 +4863,207 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>42494</v>
+        <v>42396</v>
       </c>
       <c r="B560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>42495</v>
+        <v>42397</v>
       </c>
       <c r="B561">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>42496</v>
+        <v>42398</v>
       </c>
       <c r="B562">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>42499</v>
+        <v>42401</v>
       </c>
       <c r="B563">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>42500</v>
+        <v>42402</v>
       </c>
       <c r="B564">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>42501</v>
+        <v>42403</v>
       </c>
       <c r="B565">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>42502</v>
+        <v>42404</v>
       </c>
       <c r="B566">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>42503</v>
+        <v>42405</v>
       </c>
       <c r="B567">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>42506</v>
+        <v>42415</v>
       </c>
       <c r="B568">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>42507</v>
+        <v>42416</v>
       </c>
       <c r="B569">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>42508</v>
+        <v>42417</v>
       </c>
       <c r="B570">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>42509</v>
+        <v>42418</v>
       </c>
       <c r="B571">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>42510</v>
+        <v>42419</v>
       </c>
       <c r="B572">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>42513</v>
+        <v>42422</v>
       </c>
       <c r="B573">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>42514</v>
+        <v>42423</v>
       </c>
       <c r="B574">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>42515</v>
+        <v>42424</v>
       </c>
       <c r="B575">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>42516</v>
+        <v>42425</v>
       </c>
       <c r="B576">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>42517</v>
+        <v>42426</v>
       </c>
       <c r="B577">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>42520</v>
+        <v>42429</v>
       </c>
       <c r="B578">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>42521</v>
+        <v>42430</v>
       </c>
       <c r="B579">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>42522</v>
+        <v>42431</v>
       </c>
       <c r="B580">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>42523</v>
+        <v>42432</v>
       </c>
       <c r="B581">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>42524</v>
+        <v>42433</v>
       </c>
       <c r="B582">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>42527</v>
+        <v>42436</v>
       </c>
       <c r="B583">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>42528</v>
+        <v>42437</v>
       </c>
       <c r="B584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>42529</v>
+        <v>42438</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>42534</v>
+        <v>42439</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>42535</v>
+        <v>42440</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -5087,55 +5087,55 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>42536</v>
+        <v>42443</v>
       </c>
       <c r="B588">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>42537</v>
+        <v>42444</v>
       </c>
       <c r="B589">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>42538</v>
+        <v>42445</v>
       </c>
       <c r="B590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>42541</v>
+        <v>42446</v>
       </c>
       <c r="B591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>42542</v>
+        <v>42447</v>
       </c>
       <c r="B592">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>42543</v>
+        <v>42450</v>
       </c>
       <c r="B593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>42544</v>
+        <v>42451</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>42545</v>
+        <v>42452</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>42548</v>
+        <v>42453</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>42549</v>
+        <v>42454</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>42550</v>
+        <v>42457</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>42551</v>
+        <v>42458</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>42552</v>
+        <v>42459</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>42555</v>
+        <v>42460</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>42556</v>
+        <v>42461</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>42557</v>
+        <v>42465</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>42558</v>
+        <v>42466</v>
       </c>
       <c r="B604">
         <v>1</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>42559</v>
+        <v>42467</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>42562</v>
+        <v>42468</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>42563</v>
+        <v>42471</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>42564</v>
+        <v>42472</v>
       </c>
       <c r="B608">
         <v>1</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>42565</v>
+        <v>42473</v>
       </c>
       <c r="B609">
         <v>1</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>42566</v>
+        <v>42474</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>42569</v>
+        <v>42475</v>
       </c>
       <c r="B611">
         <v>1</v>
@@ -5279,31 +5279,31 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>42570</v>
+        <v>42478</v>
       </c>
       <c r="B612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>42571</v>
+        <v>42479</v>
       </c>
       <c r="B613">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>42572</v>
+        <v>42480</v>
       </c>
       <c r="B614">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>42573</v>
+        <v>42481</v>
       </c>
       <c r="B615">
         <v>1</v>
@@ -5311,23 +5311,23 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>42576</v>
+        <v>42482</v>
       </c>
       <c r="B616">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>42577</v>
+        <v>42485</v>
       </c>
       <c r="B617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>42578</v>
+        <v>42486</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>42579</v>
+        <v>42487</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>42580</v>
+        <v>42488</v>
       </c>
       <c r="B620">
         <v>1</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>42583</v>
+        <v>42489</v>
       </c>
       <c r="B621">
         <v>1</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>42584</v>
+        <v>42493</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,151 +5367,151 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>42585</v>
+        <v>42494</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>42586</v>
+        <v>42495</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>42587</v>
+        <v>42496</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>42590</v>
+        <v>42499</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>42591</v>
+        <v>42500</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>42592</v>
+        <v>42501</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>42593</v>
+        <v>42502</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>42594</v>
+        <v>42503</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>42597</v>
+        <v>42506</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>42598</v>
+        <v>42507</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>42599</v>
+        <v>42508</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>42600</v>
+        <v>42509</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>42601</v>
+        <v>42510</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>42604</v>
+        <v>42513</v>
       </c>
       <c r="B636">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>42605</v>
+        <v>42514</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>42606</v>
+        <v>42515</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>42607</v>
+        <v>42516</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>42608</v>
+        <v>42517</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>42611</v>
+        <v>42520</v>
       </c>
       <c r="B641">
         <v>-1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>42612</v>
+        <v>42521</v>
       </c>
       <c r="B642">
         <v>-1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>42613</v>
+        <v>42522</v>
       </c>
       <c r="B643">
         <v>-1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>42614</v>
+        <v>42523</v>
       </c>
       <c r="B644">
         <v>-1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>42615</v>
+        <v>42524</v>
       </c>
       <c r="B645">
         <v>-1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>42618</v>
+        <v>42527</v>
       </c>
       <c r="B646">
         <v>-1</v>
@@ -5559,39 +5559,39 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>42619</v>
+        <v>42528</v>
       </c>
       <c r="B647">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>42620</v>
+        <v>42529</v>
       </c>
       <c r="B648">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>42621</v>
+        <v>42534</v>
       </c>
       <c r="B649">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>42622</v>
+        <v>42535</v>
       </c>
       <c r="B650">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>42625</v>
+        <v>42536</v>
       </c>
       <c r="B651">
         <v>-1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>42626</v>
+        <v>42537</v>
       </c>
       <c r="B652">
         <v>-1</v>
@@ -5607,23 +5607,23 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>42627</v>
+        <v>42538</v>
       </c>
       <c r="B653">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>42632</v>
+        <v>42541</v>
       </c>
       <c r="B654">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>42633</v>
+        <v>42542</v>
       </c>
       <c r="B655">
         <v>-1</v>
@@ -5631,87 +5631,87 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>42634</v>
+        <v>42543</v>
       </c>
       <c r="B656">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>42635</v>
+        <v>42544</v>
       </c>
       <c r="B657">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>42636</v>
+        <v>42545</v>
       </c>
       <c r="B658">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>42639</v>
+        <v>42548</v>
       </c>
       <c r="B659">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>42640</v>
+        <v>42549</v>
       </c>
       <c r="B660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>42641</v>
+        <v>42550</v>
       </c>
       <c r="B661">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>42642</v>
+        <v>42551</v>
       </c>
       <c r="B662">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>42643</v>
+        <v>42552</v>
       </c>
       <c r="B663">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>42653</v>
+        <v>42555</v>
       </c>
       <c r="B664">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>42654</v>
+        <v>42556</v>
       </c>
       <c r="B665">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>42655</v>
+        <v>42557</v>
       </c>
       <c r="B666">
         <v>1</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>42656</v>
+        <v>42558</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>42657</v>
+        <v>42559</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>42660</v>
+        <v>42562</v>
       </c>
       <c r="B669">
         <v>1</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>42661</v>
+        <v>42563</v>
       </c>
       <c r="B670">
         <v>1</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>42662</v>
+        <v>42564</v>
       </c>
       <c r="B671">
         <v>1</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>42663</v>
+        <v>42565</v>
       </c>
       <c r="B672">
         <v>1</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>42664</v>
+        <v>42566</v>
       </c>
       <c r="B673">
         <v>1</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>42667</v>
+        <v>42569</v>
       </c>
       <c r="B674">
         <v>1</v>
@@ -5783,31 +5783,31 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>42668</v>
+        <v>42570</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>42669</v>
+        <v>42571</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>42670</v>
+        <v>42572</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>42671</v>
+        <v>42573</v>
       </c>
       <c r="B678">
         <v>1</v>
@@ -5815,23 +5815,23 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>42674</v>
+        <v>42576</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>42675</v>
+        <v>42577</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>42676</v>
+        <v>42578</v>
       </c>
       <c r="B681">
         <v>1</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>42677</v>
+        <v>42579</v>
       </c>
       <c r="B682">
         <v>1</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>42678</v>
+        <v>42580</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>42681</v>
+        <v>42583</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>42682</v>
+        <v>42584</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>42683</v>
+        <v>42585</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>42684</v>
+        <v>42586</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>42685</v>
+        <v>42587</v>
       </c>
       <c r="B688">
         <v>1</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>42688</v>
+        <v>42590</v>
       </c>
       <c r="B689">
         <v>1</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>42689</v>
+        <v>42591</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>42690</v>
+        <v>42592</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -5919,39 +5919,39 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>42691</v>
+        <v>42593</v>
       </c>
       <c r="B692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>42692</v>
+        <v>42594</v>
       </c>
       <c r="B693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>42695</v>
+        <v>42597</v>
       </c>
       <c r="B694">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>42696</v>
+        <v>42598</v>
       </c>
       <c r="B695">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>42697</v>
+        <v>42599</v>
       </c>
       <c r="B696">
         <v>1</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>42698</v>
+        <v>42600</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>42699</v>
+        <v>42601</v>
       </c>
       <c r="B698">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>42702</v>
+        <v>42604</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>42703</v>
+        <v>42605</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>42704</v>
+        <v>42606</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -5999,15 +5999,15 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>42705</v>
+        <v>42607</v>
       </c>
       <c r="B702">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>42706</v>
+        <v>42608</v>
       </c>
       <c r="B703">
         <v>1</v>
@@ -6015,87 +6015,87 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>42709</v>
+        <v>42611</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>42710</v>
+        <v>42612</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>42711</v>
+        <v>42613</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>42712</v>
+        <v>42614</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>42713</v>
+        <v>42615</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>42716</v>
+        <v>42618</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>42717</v>
+        <v>42619</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>42718</v>
+        <v>42620</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>42719</v>
+        <v>42621</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>42720</v>
+        <v>42622</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>42723</v>
+        <v>42625</v>
       </c>
       <c r="B714">
         <v>-1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>42724</v>
+        <v>42626</v>
       </c>
       <c r="B715">
         <v>-1</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>42725</v>
+        <v>42627</v>
       </c>
       <c r="B716">
         <v>-1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>42726</v>
+        <v>42632</v>
       </c>
       <c r="B717">
         <v>-1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>42727</v>
+        <v>42633</v>
       </c>
       <c r="B718">
         <v>-1</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>42730</v>
+        <v>42634</v>
       </c>
       <c r="B719">
         <v>-1</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>42731</v>
+        <v>42635</v>
       </c>
       <c r="B720">
         <v>-1</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>42732</v>
+        <v>42636</v>
       </c>
       <c r="B721">
         <v>-1</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>42733</v>
+        <v>42639</v>
       </c>
       <c r="B722">
         <v>-1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>42734</v>
+        <v>42640</v>
       </c>
       <c r="B723">
         <v>-1</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>42738</v>
+        <v>42641</v>
       </c>
       <c r="B724">
         <v>-1</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>42739</v>
+        <v>42642</v>
       </c>
       <c r="B725">
         <v>-1</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>42740</v>
+        <v>42643</v>
       </c>
       <c r="B726">
         <v>-1</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>42741</v>
+        <v>42653</v>
       </c>
       <c r="B727">
         <v>-1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>42744</v>
+        <v>42654</v>
       </c>
       <c r="B728">
         <v>-1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>42745</v>
+        <v>42655</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>42746</v>
+        <v>42656</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>42747</v>
+        <v>42657</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>42748</v>
+        <v>42660</v>
       </c>
       <c r="B732">
         <v>1</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>42751</v>
+        <v>42661</v>
       </c>
       <c r="B733">
         <v>1</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>42752</v>
+        <v>42662</v>
       </c>
       <c r="B734">
         <v>1</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>42753</v>
+        <v>42663</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>42754</v>
+        <v>42664</v>
       </c>
       <c r="B736">
         <v>1</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>42755</v>
+        <v>42667</v>
       </c>
       <c r="B737">
         <v>1</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>42758</v>
+        <v>42668</v>
       </c>
       <c r="B738">
         <v>1</v>
@@ -6295,15 +6295,15 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>42759</v>
+        <v>42669</v>
       </c>
       <c r="B739">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>42760</v>
+        <v>42670</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>42761</v>
+        <v>42671</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>42769</v>
+        <v>42674</v>
       </c>
       <c r="B742">
         <v>1</v>
@@ -6327,31 +6327,31 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>42772</v>
+        <v>42675</v>
       </c>
       <c r="B743">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>42773</v>
+        <v>42676</v>
       </c>
       <c r="B744">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>42774</v>
+        <v>42677</v>
       </c>
       <c r="B745">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>42775</v>
+        <v>42678</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>42776</v>
+        <v>42681</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>42779</v>
+        <v>42682</v>
       </c>
       <c r="B748">
         <v>1</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>42780</v>
+        <v>42683</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>42781</v>
+        <v>42684</v>
       </c>
       <c r="B750">
         <v>1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>42782</v>
+        <v>42685</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>42783</v>
+        <v>42688</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>42786</v>
+        <v>42689</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>42787</v>
+        <v>42690</v>
       </c>
       <c r="B754">
         <v>1</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>42788</v>
+        <v>42691</v>
       </c>
       <c r="B755">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>42789</v>
+        <v>42692</v>
       </c>
       <c r="B756">
         <v>1</v>
@@ -6439,23 +6439,23 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>42790</v>
+        <v>42695</v>
       </c>
       <c r="B757">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>42793</v>
+        <v>42696</v>
       </c>
       <c r="B758">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>42794</v>
+        <v>42697</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -6463,15 +6463,15 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>42795</v>
+        <v>42698</v>
       </c>
       <c r="B760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>42796</v>
+        <v>42699</v>
       </c>
       <c r="B761">
         <v>1</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>42797</v>
+        <v>42702</v>
       </c>
       <c r="B762">
         <v>1</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>42800</v>
+        <v>42703</v>
       </c>
       <c r="B763">
         <v>1</v>
@@ -6495,47 +6495,47 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>42801</v>
+        <v>42704</v>
       </c>
       <c r="B764">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>42802</v>
+        <v>42705</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>42803</v>
+        <v>42706</v>
       </c>
       <c r="B766">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>42804</v>
+        <v>42709</v>
       </c>
       <c r="B767">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>42807</v>
+        <v>42710</v>
       </c>
       <c r="B768">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>42808</v>
+        <v>42711</v>
       </c>
       <c r="B769">
         <v>1</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>42809</v>
+        <v>42712</v>
       </c>
       <c r="B770">
         <v>1</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>42810</v>
+        <v>42713</v>
       </c>
       <c r="B771">
         <v>1</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>42811</v>
+        <v>42716</v>
       </c>
       <c r="B772">
         <v>1</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>42814</v>
+        <v>42717</v>
       </c>
       <c r="B773">
         <v>1</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>42815</v>
+        <v>42718</v>
       </c>
       <c r="B774">
         <v>1</v>
@@ -6583,23 +6583,23 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>42816</v>
+        <v>42719</v>
       </c>
       <c r="B775">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>42817</v>
+        <v>42720</v>
       </c>
       <c r="B776">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>42818</v>
+        <v>42723</v>
       </c>
       <c r="B777">
         <v>-1</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>42821</v>
+        <v>42724</v>
       </c>
       <c r="B778">
         <v>-1</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>42822</v>
+        <v>42725</v>
       </c>
       <c r="B779">
         <v>-1</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>42823</v>
+        <v>42726</v>
       </c>
       <c r="B780">
         <v>-1</v>
@@ -6631,15 +6631,15 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>42824</v>
+        <v>42727</v>
       </c>
       <c r="B781">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>42825</v>
+        <v>42730</v>
       </c>
       <c r="B782">
         <v>-1</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>42830</v>
+        <v>42731</v>
       </c>
       <c r="B783">
         <v>-1</v>
@@ -6655,15 +6655,15 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>42831</v>
+        <v>42732</v>
       </c>
       <c r="B784">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>42832</v>
+        <v>42733</v>
       </c>
       <c r="B785">
         <v>-1</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>42835</v>
+        <v>42734</v>
       </c>
       <c r="B786">
         <v>-1</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>42836</v>
+        <v>42738</v>
       </c>
       <c r="B787">
         <v>-1</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>42837</v>
+        <v>42739</v>
       </c>
       <c r="B788">
         <v>-1</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>42838</v>
+        <v>42740</v>
       </c>
       <c r="B789">
         <v>-1</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>42839</v>
+        <v>42741</v>
       </c>
       <c r="B790">
         <v>-1</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>42842</v>
+        <v>42744</v>
       </c>
       <c r="B791">
         <v>-1</v>
@@ -6719,71 +6719,71 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>42843</v>
+        <v>42745</v>
       </c>
       <c r="B792">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>42844</v>
+        <v>42746</v>
       </c>
       <c r="B793">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>42845</v>
+        <v>42747</v>
       </c>
       <c r="B794">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>42846</v>
+        <v>42748</v>
       </c>
       <c r="B795">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>42849</v>
+        <v>42751</v>
       </c>
       <c r="B796">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>42850</v>
+        <v>42752</v>
       </c>
       <c r="B797">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>42851</v>
+        <v>42753</v>
       </c>
       <c r="B798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>42852</v>
+        <v>42754</v>
       </c>
       <c r="B799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>42853</v>
+        <v>42755</v>
       </c>
       <c r="B800">
         <v>1</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>42857</v>
+        <v>42758</v>
       </c>
       <c r="B801">
         <v>1</v>
@@ -6799,15 +6799,15 @@
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>42858</v>
+        <v>42759</v>
       </c>
       <c r="B802">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>42859</v>
+        <v>42760</v>
       </c>
       <c r="B803">
         <v>1</v>
@@ -6815,47 +6815,47 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>42860</v>
+        <v>42761</v>
       </c>
       <c r="B804">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>42863</v>
+        <v>42769</v>
       </c>
       <c r="B805">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>42864</v>
+        <v>42772</v>
       </c>
       <c r="B806">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>42865</v>
+        <v>42773</v>
       </c>
       <c r="B807">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>42866</v>
+        <v>42774</v>
       </c>
       <c r="B808">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>42867</v>
+        <v>42775</v>
       </c>
       <c r="B809">
         <v>1</v>
@@ -6863,1266 +6863,1770 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>42870</v>
+        <v>42776</v>
       </c>
       <c r="B810">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>42871</v>
+        <v>42779</v>
       </c>
       <c r="B811">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>42872</v>
+        <v>42780</v>
       </c>
       <c r="B812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>42873</v>
+        <v>42781</v>
       </c>
       <c r="B813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>42874</v>
+        <v>42782</v>
       </c>
       <c r="B814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>42877</v>
+        <v>42783</v>
       </c>
       <c r="B815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>42878</v>
+        <v>42786</v>
       </c>
       <c r="B816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>42879</v>
+        <v>42787</v>
       </c>
       <c r="B817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>42880</v>
+        <v>42788</v>
       </c>
       <c r="B818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>42881</v>
+        <v>42789</v>
       </c>
       <c r="B819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>42886</v>
+        <v>42790</v>
       </c>
       <c r="B820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>42887</v>
+        <v>42793</v>
       </c>
       <c r="B821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>42888</v>
+        <v>42794</v>
       </c>
       <c r="B822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>42891</v>
+        <v>42795</v>
       </c>
       <c r="B823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>42892</v>
+        <v>42796</v>
       </c>
       <c r="B824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>42893</v>
+        <v>42797</v>
       </c>
       <c r="B825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>42894</v>
+        <v>42800</v>
       </c>
       <c r="B826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
-        <v>42895</v>
+        <v>42801</v>
       </c>
       <c r="B827">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2">
-        <v>42898</v>
+        <v>42802</v>
       </c>
       <c r="B828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2">
-        <v>42899</v>
+        <v>42803</v>
       </c>
       <c r="B829">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="2">
-        <v>42900</v>
+        <v>42804</v>
       </c>
       <c r="B830">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="2">
-        <v>42901</v>
+        <v>42807</v>
       </c>
       <c r="B831">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="2">
-        <v>42902</v>
+        <v>42808</v>
       </c>
       <c r="B832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="2">
-        <v>42905</v>
+        <v>42809</v>
       </c>
       <c r="B833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="2">
-        <v>42906</v>
+        <v>42810</v>
       </c>
       <c r="B834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="2">
-        <v>42907</v>
+        <v>42811</v>
       </c>
       <c r="B835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="2">
-        <v>42908</v>
+        <v>42814</v>
       </c>
       <c r="B836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="2">
-        <v>42909</v>
+        <v>42815</v>
       </c>
       <c r="B837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="2">
-        <v>42912</v>
+        <v>42816</v>
       </c>
       <c r="B838">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="2">
-        <v>42913</v>
+        <v>42817</v>
       </c>
       <c r="B839">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="2">
-        <v>42914</v>
+        <v>42818</v>
       </c>
       <c r="B840">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="2">
-        <v>42915</v>
+        <v>42821</v>
       </c>
       <c r="B841">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="2">
-        <v>42916</v>
+        <v>42822</v>
       </c>
       <c r="B842">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="2">
-        <v>42919</v>
+        <v>42823</v>
       </c>
       <c r="B843">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2">
-        <v>42920</v>
+        <v>42824</v>
       </c>
       <c r="B844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="2">
-        <v>42921</v>
+        <v>42825</v>
       </c>
       <c r="B845">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="2">
-        <v>42922</v>
+        <v>42830</v>
       </c>
       <c r="B846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="2">
-        <v>42923</v>
+        <v>42831</v>
       </c>
       <c r="B847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="2">
-        <v>42926</v>
+        <v>42832</v>
       </c>
       <c r="B848">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="2">
-        <v>42927</v>
+        <v>42835</v>
       </c>
       <c r="B849">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" s="2">
-        <v>42928</v>
+        <v>42836</v>
       </c>
       <c r="B850">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" s="2">
-        <v>42929</v>
+        <v>42837</v>
       </c>
       <c r="B851">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" s="2">
-        <v>42930</v>
+        <v>42838</v>
       </c>
       <c r="B852">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" s="2">
-        <v>42933</v>
+        <v>42839</v>
       </c>
       <c r="B853">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" s="2">
-        <v>42934</v>
+        <v>42842</v>
       </c>
       <c r="B854">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" s="2">
-        <v>42935</v>
+        <v>42843</v>
       </c>
       <c r="B855">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" s="2">
-        <v>42936</v>
+        <v>42844</v>
       </c>
       <c r="B856">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" s="2">
-        <v>42937</v>
+        <v>42845</v>
       </c>
       <c r="B857">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" s="2">
-        <v>42940</v>
+        <v>42846</v>
       </c>
       <c r="B858">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" s="2">
-        <v>42941</v>
+        <v>42849</v>
       </c>
       <c r="B859">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" s="2">
-        <v>42942</v>
+        <v>42850</v>
       </c>
       <c r="B860">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" s="2">
-        <v>42943</v>
+        <v>42851</v>
       </c>
       <c r="B861">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" s="2">
-        <v>42944</v>
+        <v>42852</v>
       </c>
       <c r="B862">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" s="2">
-        <v>42947</v>
+        <v>42853</v>
       </c>
       <c r="B863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" s="2">
-        <v>42948</v>
+        <v>42857</v>
       </c>
       <c r="B864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="2">
-        <v>42949</v>
+        <v>42858</v>
       </c>
       <c r="B865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="2">
-        <v>42950</v>
+        <v>42859</v>
       </c>
       <c r="B866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="2">
-        <v>42951</v>
+        <v>42860</v>
       </c>
       <c r="B867">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="2">
-        <v>42954</v>
+        <v>42863</v>
       </c>
       <c r="B868">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="2">
-        <v>42955</v>
+        <v>42864</v>
       </c>
       <c r="B869">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="2">
-        <v>42956</v>
+        <v>42865</v>
       </c>
       <c r="B870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="2">
-        <v>42957</v>
+        <v>42866</v>
       </c>
       <c r="B871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="2">
-        <v>42958</v>
+        <v>42867</v>
       </c>
       <c r="B872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="2">
-        <v>42961</v>
+        <v>42870</v>
       </c>
       <c r="B873">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="2">
-        <v>42962</v>
+        <v>42871</v>
       </c>
       <c r="B874">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="2">
-        <v>42963</v>
+        <v>42872</v>
       </c>
       <c r="B875">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="2">
-        <v>42964</v>
+        <v>42873</v>
       </c>
       <c r="B876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="2">
-        <v>42965</v>
+        <v>42874</v>
       </c>
       <c r="B877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="2">
-        <v>42968</v>
+        <v>42877</v>
       </c>
       <c r="B878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="2">
-        <v>42969</v>
+        <v>42878</v>
       </c>
       <c r="B879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="2">
-        <v>42970</v>
+        <v>42879</v>
       </c>
       <c r="B880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" s="2">
-        <v>42971</v>
+        <v>42880</v>
       </c>
       <c r="B881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" s="2">
-        <v>42972</v>
+        <v>42881</v>
       </c>
       <c r="B882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" s="2">
-        <v>42975</v>
+        <v>42886</v>
       </c>
       <c r="B883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" s="2">
-        <v>42976</v>
+        <v>42887</v>
       </c>
       <c r="B884">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" s="2">
-        <v>42977</v>
+        <v>42888</v>
       </c>
       <c r="B885">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" s="2">
-        <v>42978</v>
+        <v>42891</v>
       </c>
       <c r="B886">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" s="2">
-        <v>42979</v>
+        <v>42892</v>
       </c>
       <c r="B887">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" s="2">
-        <v>42982</v>
+        <v>42893</v>
       </c>
       <c r="B888">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" s="2">
-        <v>42983</v>
+        <v>42894</v>
       </c>
       <c r="B889">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" s="2">
-        <v>42984</v>
+        <v>42895</v>
       </c>
       <c r="B890">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" s="2">
-        <v>42985</v>
+        <v>42898</v>
       </c>
       <c r="B891">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" s="2">
-        <v>42986</v>
+        <v>42899</v>
       </c>
       <c r="B892">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" s="2">
-        <v>42989</v>
+        <v>42900</v>
       </c>
       <c r="B893">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" s="2">
-        <v>42990</v>
+        <v>42901</v>
       </c>
       <c r="B894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" s="2">
-        <v>42991</v>
+        <v>42902</v>
       </c>
       <c r="B895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" s="2">
-        <v>42992</v>
+        <v>42905</v>
       </c>
       <c r="B896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" s="2">
-        <v>42993</v>
+        <v>42906</v>
       </c>
       <c r="B897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" s="2">
-        <v>42996</v>
+        <v>42907</v>
       </c>
       <c r="B898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" s="2">
-        <v>42997</v>
+        <v>42908</v>
       </c>
       <c r="B899">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" s="2">
-        <v>42998</v>
+        <v>42909</v>
       </c>
       <c r="B900">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" s="2">
-        <v>42999</v>
+        <v>42912</v>
       </c>
       <c r="B901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" s="2">
-        <v>43000</v>
+        <v>42913</v>
       </c>
       <c r="B902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" s="2">
-        <v>43003</v>
+        <v>42914</v>
       </c>
       <c r="B903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" s="2">
-        <v>43004</v>
+        <v>42915</v>
       </c>
       <c r="B904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" s="2">
-        <v>43005</v>
+        <v>42916</v>
       </c>
       <c r="B905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" s="2">
-        <v>43006</v>
+        <v>42919</v>
       </c>
       <c r="B906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" s="2">
-        <v>43007</v>
+        <v>42920</v>
       </c>
       <c r="B907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" s="2">
-        <v>43017</v>
+        <v>42921</v>
       </c>
       <c r="B908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" s="2">
-        <v>43018</v>
+        <v>42922</v>
       </c>
       <c r="B909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" s="2">
-        <v>43019</v>
+        <v>42923</v>
       </c>
       <c r="B910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" s="2">
-        <v>43020</v>
+        <v>42926</v>
       </c>
       <c r="B911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" s="2">
-        <v>43021</v>
+        <v>42927</v>
       </c>
       <c r="B912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" s="2">
-        <v>43024</v>
+        <v>42928</v>
       </c>
       <c r="B913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" s="2">
-        <v>43025</v>
+        <v>42929</v>
       </c>
       <c r="B914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" s="2">
-        <v>43026</v>
+        <v>42930</v>
       </c>
       <c r="B915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" s="2">
-        <v>43027</v>
+        <v>42933</v>
       </c>
       <c r="B916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" s="2">
-        <v>43028</v>
+        <v>42934</v>
       </c>
       <c r="B917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" s="2">
-        <v>43031</v>
+        <v>42935</v>
       </c>
       <c r="B918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" s="2">
-        <v>43032</v>
+        <v>42936</v>
       </c>
       <c r="B919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" s="2">
-        <v>43033</v>
+        <v>42937</v>
       </c>
       <c r="B920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" s="2">
-        <v>43034</v>
+        <v>42940</v>
       </c>
       <c r="B921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" s="2">
-        <v>43035</v>
+        <v>42941</v>
       </c>
       <c r="B922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" s="2">
-        <v>43038</v>
+        <v>42942</v>
       </c>
       <c r="B923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" s="2">
-        <v>43039</v>
+        <v>42943</v>
       </c>
       <c r="B924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" s="2">
-        <v>43040</v>
+        <v>42944</v>
       </c>
       <c r="B925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" s="2">
-        <v>43041</v>
+        <v>42947</v>
       </c>
       <c r="B926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" s="2">
-        <v>43042</v>
+        <v>42948</v>
       </c>
       <c r="B927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" s="2">
-        <v>43045</v>
+        <v>42949</v>
       </c>
       <c r="B928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" s="2">
-        <v>43046</v>
+        <v>42950</v>
       </c>
       <c r="B929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" s="2">
-        <v>43047</v>
+        <v>42951</v>
       </c>
       <c r="B930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" s="2">
-        <v>43048</v>
+        <v>42954</v>
       </c>
       <c r="B931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" s="2">
-        <v>43049</v>
+        <v>42955</v>
       </c>
       <c r="B932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" s="2">
-        <v>43052</v>
+        <v>42956</v>
       </c>
       <c r="B933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" s="2">
-        <v>43053</v>
+        <v>42957</v>
       </c>
       <c r="B934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" s="2">
-        <v>43054</v>
+        <v>42958</v>
       </c>
       <c r="B935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" s="2">
-        <v>43055</v>
+        <v>42961</v>
       </c>
       <c r="B936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" s="2">
-        <v>43056</v>
+        <v>42962</v>
       </c>
       <c r="B937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" s="2">
-        <v>43059</v>
+        <v>42963</v>
       </c>
       <c r="B938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" s="2">
-        <v>43060</v>
+        <v>42964</v>
       </c>
       <c r="B939">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" s="2">
-        <v>43061</v>
+        <v>42965</v>
       </c>
       <c r="B940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" s="2">
-        <v>43062</v>
+        <v>42968</v>
       </c>
       <c r="B941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" s="2">
-        <v>43063</v>
+        <v>42969</v>
       </c>
       <c r="B942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" s="2">
-        <v>43066</v>
+        <v>42970</v>
       </c>
       <c r="B943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" s="2">
-        <v>43067</v>
+        <v>42971</v>
       </c>
       <c r="B944">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" s="2">
-        <v>43068</v>
+        <v>42972</v>
       </c>
       <c r="B945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" s="2">
-        <v>43069</v>
+        <v>42975</v>
       </c>
       <c r="B946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" s="2">
-        <v>43070</v>
+        <v>42976</v>
       </c>
       <c r="B947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" s="2">
-        <v>43073</v>
+        <v>42977</v>
       </c>
       <c r="B948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" s="2">
-        <v>43074</v>
+        <v>42978</v>
       </c>
       <c r="B949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" s="2">
-        <v>43075</v>
+        <v>42979</v>
       </c>
       <c r="B950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" s="2">
-        <v>43076</v>
+        <v>42982</v>
       </c>
       <c r="B951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" s="2">
-        <v>43077</v>
+        <v>42983</v>
       </c>
       <c r="B952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" s="2">
-        <v>43080</v>
+        <v>42984</v>
       </c>
       <c r="B953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" s="2">
-        <v>43081</v>
+        <v>42985</v>
       </c>
       <c r="B954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" s="2">
-        <v>43082</v>
+        <v>42986</v>
       </c>
       <c r="B955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" s="2">
-        <v>43083</v>
+        <v>42989</v>
       </c>
       <c r="B956">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" s="2">
-        <v>43084</v>
+        <v>42990</v>
       </c>
       <c r="B957">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" s="2">
-        <v>43087</v>
+        <v>42991</v>
       </c>
       <c r="B958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" s="2">
-        <v>43088</v>
+        <v>42992</v>
       </c>
       <c r="B959">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" s="2">
-        <v>43089</v>
+        <v>42993</v>
       </c>
       <c r="B960">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" s="2">
-        <v>43090</v>
+        <v>42996</v>
       </c>
       <c r="B961">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" s="2">
-        <v>43091</v>
+        <v>42997</v>
       </c>
       <c r="B962">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" s="2">
-        <v>43094</v>
+        <v>42998</v>
       </c>
       <c r="B963">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" s="2">
-        <v>43095</v>
+        <v>42999</v>
       </c>
       <c r="B964">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" s="2">
-        <v>43096</v>
+        <v>43000</v>
       </c>
       <c r="B965">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" s="2">
-        <v>43097</v>
+        <v>43003</v>
       </c>
       <c r="B966">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" s="2">
+        <v>43004</v>
+      </c>
+      <c r="B967">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B968">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2">
+      <c r="A969" s="2">
+        <v>43006</v>
+      </c>
+      <c r="B969">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2">
+      <c r="A970" s="2">
+        <v>43007</v>
+      </c>
+      <c r="B970">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2">
+      <c r="A971" s="2">
+        <v>43017</v>
+      </c>
+      <c r="B971">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2">
+      <c r="A972" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B972">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2">
+      <c r="A973" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B973">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2">
+      <c r="A974" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B974">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2">
+      <c r="A975" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B975">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2">
+      <c r="A976" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2">
+      <c r="A977" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2">
+      <c r="A978" s="2">
+        <v>43026</v>
+      </c>
+      <c r="B978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2">
+      <c r="A979" s="2">
+        <v>43027</v>
+      </c>
+      <c r="B979">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2">
+      <c r="A980" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B980">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2">
+      <c r="A981" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2">
+      <c r="A982" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B982">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2">
+      <c r="A983" s="2">
+        <v>43033</v>
+      </c>
+      <c r="B983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2">
+      <c r="A984" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B984">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2">
+      <c r="A985" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B985">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2">
+      <c r="A986" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B986">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2">
+      <c r="A987" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B987">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2">
+      <c r="A988" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B988">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2">
+      <c r="A989" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B989">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2">
+      <c r="A990" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B990">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2">
+      <c r="A991" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B991">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2">
+      <c r="A992" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2">
+      <c r="A993" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2">
+      <c r="A994" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2">
+      <c r="A995" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2">
+      <c r="A996" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2">
+      <c r="A997" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2">
+      <c r="A998" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2">
+      <c r="A999" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B999">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2">
+      <c r="A1000" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B1000">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2">
+      <c r="A1001" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B1001">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2">
+      <c r="A1002" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B1002">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2">
+      <c r="A1003" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2">
+      <c r="A1004" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2">
+      <c r="A1005" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2">
+      <c r="A1006" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2">
+      <c r="A1007" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2">
+      <c r="A1008" s="2">
+        <v>43068</v>
+      </c>
+      <c r="B1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2">
+      <c r="A1009" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2">
+      <c r="A1010" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2">
+      <c r="A1011" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2">
+      <c r="A1012" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2">
+      <c r="A1013" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B1013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2">
+      <c r="A1014" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2">
+      <c r="A1015" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B1015">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2">
+      <c r="A1016" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2">
+      <c r="A1017" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2">
+      <c r="A1018" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2">
+      <c r="A1019" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B1019">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2">
+      <c r="A1020" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B1020">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2">
+      <c r="A1021" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B1021">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2">
+      <c r="A1022" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2">
+      <c r="A1023" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B1023">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2">
+      <c r="A1024" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B1024">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2">
+      <c r="A1025" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2">
+      <c r="A1026" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2">
+      <c r="A1027" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B1027">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2">
+      <c r="A1028" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B1028">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2">
+      <c r="A1029" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B1029">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2">
+      <c r="A1030" s="2">
         <v>43098</v>
       </c>
-      <c r="B967">
-        <v>0</v>
+      <c r="B1030">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
